--- a/medicine/Enfance/Collection_J/Collection_J.xlsx
+++ b/medicine/Enfance/Collection_J/Collection_J.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection J (J pour Junior) est une collection française de romans pour la jeunesse créée par les éditions ODEJ et publiée de 1959 à 1963. Elle comprend soixante et un titres : des classiques français et anglo-saxons, des séries telles que Le Club des cinq ou Une enquête des sœurs Parker, des westerns, du fantastique et quelques titres contemporains de science-fiction.
 </t>
@@ -511,7 +523,9 @@
           <t>Aspect extérieur des livres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les volumes se présentent sous forme cartonnée in-8, reliés et numérotés. 
 De couleur bleue ou rouge, ils comptent entre 180 et 215 pages et quatre illustrations en couleur hors texte de pleine page. 
@@ -543,7 +557,9 @@
           <t>Liste exhaustive des romans publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>N°01 : Mon oncle, 1959, de J. C. Carrière, D'après le film de Jacques Tati (illustrations de Cattaneo)
 N°02 : Princes du ciel, 1959, de Georges Blond (illustrations de Cattaneo)
@@ -556,7 +572,7 @@
 N°09 : Le Fils du loup, 1959, de Jack London (illustrations de Cattaneo)
 N°10 : Le Mas provençal, 1959, d'Olga de Drenteln (illustrations de Cattaneo)
 N°11 : Melissa, 1960, de James Oliver Curwood (illustrations de Cattaneo)
-N°12 : Le Secret du chalet suisse, 1960, de Carolyn Keene[1] (illustrations de Cattaneo)
+N°12 : Le Secret du chalet suisse, 1960, de Carolyn Keene (illustrations de Cattaneo)
 N°13 : La Femme d’un roi, 1960, de Jack London (illustrations de Cattaneo)
 N°14 : Fin tireur, 1960, de Clarence Mulford (illustrations de Nardini)
 N°15 : Ivanhoé, 1960, de Walter Scott (illustrations de Cattaneo et Maraja)
@@ -575,7 +591,7 @@
 N°28 : Le Temple englouti, 1960, de John Blaine (illustrations de Nardini)
 N°29 : Jane Eyre, 1960, de Charlotte Brontë (illustrations de Nardini)
 N°30 : La Petite Fadette, 1960, de George Sand (illustrations de Nardini)
-N°31 : Le Secret du clocher, 1960, de Carolyn Keene[1] (illustrations de Nardini)
+N°31 : Le Secret du clocher, 1960, de Carolyn Keene (illustrations de Nardini)
 N°32 : Sissi et son fils, 1960, d'Elizabeth Burnat (illustrations de Nardini)
 N°33 : L'Allumeur de réverbères, 1960, de M. S. Cummins (illustrations de Lise Bartoli et Cattaneo)
 N°34 : Le Prince et le Pauvre, 1960, de Mark Twain (illustrations de Cattaneo et Maraja)
@@ -585,7 +601,7 @@
 N°38 : Mémoires d'un âne, 1961, de Comtesse de Ségur (illustrations de Nardini)
 N°39 : Mystères des îles, 1961, de Robert de la Croix (illustrations de Nardini)
 N°40 : Robur le Conquérant, 1961, de Jules Verne (illustrations de Nardini)
-N°41 : Le Mystère de l’oiseau de bambou, 1961, de Carolyn Keene[1] (illustrations de Nardini)
+N°41 : Le Mystère de l’oiseau de bambou, 1961, de Carolyn Keene (illustrations de Nardini)
 N°42 : Le Petit Tambour d'Arcole, 1961, de Jean Burnat (illustrations de Leguen)
 N°43 : Le Capitaine Fracasse, 1961, de Théophile Gautier (illustrations de Leguen)
 N°44 : Pauvre Blaise, 1961, de Comtesse de Ségur (illustrations de Simone Baudoin)
@@ -594,14 +610,14 @@
 N°47 : Les Robinsons Suisses, 1962, de Johann Wyss(illustrations de Landenna)
 N°48 : Jean Valjean, 1961, de Victor Hugo (illustrations de Henri Dimpre)
 N°49 : Cassidy joue et gagne, 1962, de Clarence Mulford (illustrations de Henri Dimpre)
-N°50 : Le Mystère de l’œil de rubis, 1962, de Carolyn Keene[1] (illustrations de Barbato)
+N°50 : Le Mystère de l’œil de rubis, 1962, de Carolyn Keene (illustrations de Barbato)
 N°51 : L'Archer fantastique, 1962, de Frank Crisp (illustrations François Batet)
 N°52 : Moby-Dick, 1962, de Herman Melville (illustrations de Gaston de Sainte-Croix)
 N°53 : Helgvor du Fleuve Bleu, 1962, de J.-H. Rosny aîné. (illustrations de Gaston de Sainte-Croix)
 N°54 : Babette mène l'enquête, 1962, de P. Mansbridge (illustrations de Gaston de Sainte-Croix)
 N°55 : Le Secret de l'île verte, 1962, d'Enid Blyton (illustrations de G. Jasson)
 N°56 : Tarass Boulba, 1962, de Nicolas Gogol (illustrations de Barbato)
-N°57 : Le Mystère de l’anneau de jade, 1962, de Carolyn Keene[1](illustrations de Barbato)
+N°57 : Le Mystère de l’anneau de jade, 1962, de Carolyn Keene(illustrations de Barbato)
 N°58 : L'Étrange Cas du docteur Jekyll et de M. Hyde, 1962, de Robert Louis Stevenson
 N°59 : Le Secret de la tour du guet, 1962, d'Enid Blyton (illustrations de G. Jasson)
 N°60 : Le Vengeur de Vercingétorix, 1962, de Jean Burnat (illustrations de Barbato)
@@ -633,7 +649,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bibliothèque nationale de France</t>
         </is>
